--- a/document/Time Sheet.xlsx
+++ b/document/Time Sheet.xlsx
@@ -19,7 +19,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7miUNqrNmldpq014IPSfisAR4ue3xQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mgLpwA/1AP2+0nq06Elz2qOIzNvQw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -85,10 +85,10 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>Enter the total hours worked both in class and outside of class</t>
+    <t>Week 3</t>
   </si>
   <si>
-    <t>Week 3</t>
+    <t>Enter the total hours worked both in class and outside of class</t>
   </si>
   <si>
     <t>Week 4</t>
@@ -134,12 +134,12 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -169,19 +169,30 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -440,7 +451,7 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -448,16 +459,16 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -493,13 +504,14 @@
       </c>
       <c r="B4" s="1">
         <f>'Week 1'!C$10</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
+        <f>'Week 1'!E$10</f>
         <v>13.5</v>
       </c>
       <c r="E4" s="1">
@@ -529,19 +541,18 @@
       </c>
       <c r="B5" s="1">
         <f>'Week 2'!C$9</f>
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C13" si="1">B5+C4</f>
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <f>'Week 2'!E$9</f>
-        <v>0</v>
+        <v>33.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>23.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E13" si="2">D5+E4</f>
-        <v>13.5</v>
+        <v>36.5</v>
       </c>
       <c r="F5" s="1">
         <f>'Week 2'!G$9</f>
@@ -553,16 +564,16 @@
       </c>
       <c r="H5" s="1">
         <f>'Week 2'!I$9</f>
-        <v>0</v>
+        <v>15.67</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I13" si="4">H5+I4</f>
-        <v>12.2</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <f>'Week 3'!C$9</f>
@@ -570,7 +581,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>33.5</v>
       </c>
       <c r="D6" s="1">
         <f>'Week 3'!E$9</f>
@@ -578,7 +589,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>36.5</v>
       </c>
       <c r="F6" s="1">
         <f>'Week 3'!G$9</f>
@@ -594,7 +605,7 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
-        <v>12.2</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -607,7 +618,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>33.5</v>
       </c>
       <c r="D7" s="1">
         <f>'Week 4'!E$9</f>
@@ -615,7 +626,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>36.5</v>
       </c>
       <c r="F7" s="1">
         <f>'Week 4'!G$9</f>
@@ -631,7 +642,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>12.2</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -644,7 +655,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>33.5</v>
       </c>
       <c r="D8" s="1">
         <f>'Week 5'!E$9</f>
@@ -652,7 +663,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>36.5</v>
       </c>
       <c r="F8" s="1">
         <f>'Week 5'!G$9</f>
@@ -668,7 +679,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>12.2</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -681,7 +692,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>33.5</v>
       </c>
       <c r="D9" s="1">
         <f>'Week 6'!E$9</f>
@@ -689,7 +700,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>36.5</v>
       </c>
       <c r="F9" s="1">
         <f>'Week 6'!G$9</f>
@@ -705,7 +716,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>12.2</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -718,7 +729,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>33.5</v>
       </c>
       <c r="D10" s="1">
         <f>'Week 7'!E$9</f>
@@ -726,7 +737,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>36.5</v>
       </c>
       <c r="F10" s="1">
         <f>'Week 7'!G$9</f>
@@ -742,7 +753,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>12.2</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -755,7 +766,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>33.5</v>
       </c>
       <c r="D11" s="1">
         <f>'Week 8'!E$9</f>
@@ -763,7 +774,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>36.5</v>
       </c>
       <c r="F11" s="1">
         <f>'Week 8'!G$9</f>
@@ -779,7 +790,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>12.2</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -792,7 +803,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>33.5</v>
       </c>
       <c r="D12" s="1">
         <f>'Week 9'!E$9</f>
@@ -800,7 +811,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>36.5</v>
       </c>
       <c r="F12" s="1">
         <f>'Week 9'!G$9</f>
@@ -816,7 +827,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>12.2</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -829,7 +840,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>33.5</v>
       </c>
       <c r="D13" s="1">
         <f>'Week 10'!E$9</f>
@@ -837,7 +848,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>36.5</v>
       </c>
       <c r="F13" s="1">
         <f>'Week 10'!G$9</f>
@@ -853,7 +864,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>12.2</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
@@ -1852,6 +1863,11 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <conditionalFormatting sqref="A1:I13">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -1876,7 +1892,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -1932,22 +1948,22 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -1957,22 +1973,22 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
@@ -1982,22 +1998,22 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2007,22 +2023,22 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2032,22 +2048,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2057,22 +2073,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2082,22 +2098,22 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2106,7 +2122,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -3122,7 +3138,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -3178,22 +3194,22 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -3203,22 +3219,22 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
@@ -3228,22 +3244,22 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3253,22 +3269,22 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3278,22 +3294,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3303,22 +3319,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3328,22 +3344,22 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3352,7 +3368,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -4368,7 +4384,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -4424,26 +4440,26 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>2.5</v>
       </c>
       <c r="C4" s="1">
         <f>B4</f>
         <v>2.5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>4.0</v>
       </c>
       <c r="E4" s="1">
         <f>D4</f>
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>4.0</v>
       </c>
       <c r="I4" s="1">
@@ -4455,26 +4471,26 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>2.5</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>5</v>
       </c>
-      <c r="D5" s="3">
-        <v>2.0</v>
+      <c r="D5" s="5">
+        <v>4.0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
-        <v>6</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="4">
         <v>2.7</v>
       </c>
       <c r="I5" s="1">
@@ -4486,24 +4502,26 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>4.0</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5">
+        <v>2.0</v>
+      </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>3.0</v>
       </c>
       <c r="I6" s="1">
@@ -4515,24 +4533,26 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>4.0</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>3.5</v>
+      </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>13.5</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="4">
         <v>2.0</v>
       </c>
       <c r="I7" s="1">
@@ -4544,22 +4564,24 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4">
+        <v>0.5</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>13.5</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>11.7</v>
@@ -4569,22 +4591,24 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4">
+        <v>1.0</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>14.5</v>
+      </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>13.5</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>0.5</v>
       </c>
       <c r="I9" s="1">
@@ -4596,22 +4620,24 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4">
+        <v>1.5</v>
+      </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>13.5</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>12.2</v>
@@ -4620,7 +4646,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -5637,7 +5663,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -5693,181 +5719,215 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="str">
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="1">
         <f>B4</f>
-        <v/>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1" t="str">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E4" s="1">
         <f>D4</f>
-        <v/>
-      </c>
-      <c r="F4" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="str">
+      <c r="H4" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="I4" s="1">
         <f>H4</f>
-        <v/>
+        <v>2.67</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4">
+        <v>3.5</v>
+      </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>6.5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4.0</v>
+      </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4">
+        <v>4.5</v>
+      </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
-        <v>0</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="4">
+        <v>2.5</v>
+      </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4.0</v>
+      </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4">
+        <v>3.5</v>
+      </c>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4">
+        <v>3.0</v>
+      </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.0</v>
+      </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4">
+        <v>3.0</v>
+      </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5">
+        <v>0.0</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.0</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5">
+        <v>5.5</v>
+      </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.0</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>2.0</v>
+      </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>17.5</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -6883,7 +6943,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -6939,22 +6999,22 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -6964,22 +7024,22 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
@@ -6989,22 +7049,22 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7014,22 +7074,22 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7039,22 +7099,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7064,22 +7124,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7089,22 +7149,22 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7113,7 +7173,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -8129,7 +8189,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -8185,22 +8245,22 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -8210,22 +8270,22 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
@@ -8235,22 +8295,22 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8260,22 +8320,22 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8285,22 +8345,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8310,22 +8370,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8335,22 +8395,22 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -8359,7 +8419,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -9375,7 +9435,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -9431,22 +9491,22 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -9456,22 +9516,22 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
@@ -9481,22 +9541,22 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9506,22 +9566,22 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9531,22 +9591,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9556,22 +9616,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9581,22 +9641,22 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9605,7 +9665,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -10621,7 +10681,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -10677,22 +10737,22 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -10702,22 +10762,22 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
@@ -10727,22 +10787,22 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10752,22 +10812,22 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10777,22 +10837,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10802,22 +10862,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10827,22 +10887,22 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10851,7 +10911,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -11867,7 +11927,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -11923,22 +11983,22 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -11948,22 +12008,22 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
@@ -11973,22 +12033,22 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11998,22 +12058,22 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12023,22 +12083,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12048,22 +12108,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12073,22 +12133,22 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12097,7 +12157,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
@@ -13113,7 +13173,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="str">
+      <c r="B1" s="3" t="str">
         <f>Totals!B1</f>
         <v>Direct Kick</v>
       </c>
@@ -13169,22 +13229,22 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="str">
         <f>B4</f>
         <v/>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1" t="str">
         <f>D4</f>
         <v/>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="1" t="str">
         <f>F4</f>
         <v/>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="1" t="str">
         <f>H4</f>
         <v/>
@@ -13194,22 +13254,22 @@
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C10" si="1">B5+C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E10" si="2">D5+E4</f>
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G10" si="3">F5+G4</f>
         <v>0</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I10" si="4">H5+I4</f>
         <v>0</v>
@@ -13219,22 +13279,22 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13244,22 +13304,22 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13269,22 +13329,22 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13294,22 +13354,22 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13319,22 +13379,22 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13343,7 +13403,7 @@
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
